--- a/documents/TableQLHV.xlsx
+++ b/documents/TableQLHV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Quan_Ly_Hoc_Vien\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFB84BF4-8887-45DD-9E48-5207DD18B818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C2C7F-66DC-4F9A-81E8-C65162CF8955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03857ACC-7CE7-4F01-A6FE-7BFE830BAB8A}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
-  <si>
-    <t>PhanCong</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Ma</t>
   </si>
@@ -50,18 +47,6 @@
   </si>
   <si>
     <t>MaGV</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C#</t>
   </si>
   <si>
     <t>DiemDanh</t>
@@ -168,14 +153,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,18 +202,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3A6B9F0-5117-4178-AF97-13A4152B1924}" name="Table2" displayName="Table2" ref="B3:D5" totalsRowShown="0">
-  <autoFilter ref="B3:D5" xr:uid="{D3A6B9F0-5117-4178-AF97-13A4152B1924}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7293D834-F9BF-4063-B061-887CBF1C1D13}" name="MaLop"/>
-    <tableColumn id="2" xr3:uid="{53F8C5CF-D4D9-4FA5-ABE7-EA6DADDF0294}" name="MaMon"/>
-    <tableColumn id="3" xr3:uid="{7B71C9D6-C68C-4A22-9BE8-02D4F50FE65E}" name="MaGV"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{18A67224-CAEE-4D82-A897-36D152CCF7F3}" name="Table5" displayName="Table5" ref="B9:G10" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G10" xr:uid="{18A67224-CAEE-4D82-A897-36D152CCF7F3}"/>
   <tableColumns count="6">
@@ -243,7 +216,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E7852D53-749B-4421-9D41-85265B3A59C7}" name="Table8" displayName="Table8" ref="B14:D16" totalsRowShown="0">
   <autoFilter ref="B14:D16" xr:uid="{E7852D53-749B-4421-9D41-85265B3A59C7}"/>
   <tableColumns count="3">
@@ -255,7 +228,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E01A4F60-4EBA-41F5-A881-2B64B40EEA40}" name="Table510" displayName="Table510" ref="B20:I21" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B20:I21" xr:uid="{E01A4F60-4EBA-41F5-A881-2B64B40EEA40}"/>
   <tableColumns count="8">
@@ -272,7 +245,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B06679BD-6B5E-47D2-8206-25A0BD58FDF2}" name="Table811" displayName="Table811" ref="B25:D27" totalsRowShown="0">
   <autoFilter ref="B25:D27" xr:uid="{B06679BD-6B5E-47D2-8206-25A0BD58FDF2}"/>
   <tableColumns count="3">
@@ -284,7 +257,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5ABD0383-A274-4B31-B1AF-1B9B5B135552}" name="Table12" displayName="Table12" ref="B31:G32" totalsRowShown="0">
   <autoFilter ref="B31:G32" xr:uid="{5ABD0383-A274-4B31-B1AF-1B9B5B135552}"/>
   <tableColumns count="6">
@@ -598,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB340FA-15E7-434F-B0EF-32D4B1D5AF11}">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,138 +584,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -757,23 +699,23 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26">
@@ -782,51 +724,51 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
         <v>21</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -839,13 +781,12 @@
     <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>